--- a/embeded-hw3/scripts/out.xlsx
+++ b/embeded-hw3/scripts/out.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Github\Embeded-HW\embeded-hw3\scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928835D0-DF92-498C-8FEE-791BF5399449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>index</t>
   </si>
@@ -50,18 +36,15 @@
   <si>
     <t>horner optimized</t>
   </si>
-  <si>
-    <t>Total</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -98,92 +81,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowCount="1" totalsRowDxfId="0">
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mixed" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mixed optimized" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="poly" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="poly optimized" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="horner" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="horner optimized" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="index" dataDxfId="0"/>
+    <tableColumn id="2" name="mixed" dataDxfId="1"/>
+    <tableColumn id="3" name="mixed optimized" dataDxfId="1"/>
+    <tableColumn id="4" name="poly" dataDxfId="1"/>
+    <tableColumn id="5" name="poly optimized" dataDxfId="1"/>
+    <tableColumn id="6" name="horner" dataDxfId="1"/>
+    <tableColumn id="7" name="horner optimized" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -232,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,25 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,263 +427,234 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.497042</v>
+        <v>2.701618</v>
       </c>
       <c r="C2" s="2">
-        <v>2.5157379999999998</v>
+        <v>1.957689</v>
       </c>
       <c r="D2" s="2">
-        <v>4.6827319999999997</v>
+        <v>4.956589</v>
       </c>
       <c r="E2" s="2">
-        <v>2.7236340000000001</v>
+        <v>2.694509</v>
       </c>
       <c r="F2" s="2">
-        <v>5.8567499999999999</v>
+        <v>5.614269</v>
       </c>
       <c r="G2" s="2">
-        <v>3.690169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.762377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.322899</v>
+        <v>2.391811</v>
       </c>
       <c r="C3" s="2">
-        <v>1.9748950000000001</v>
+        <v>1.775808</v>
       </c>
       <c r="D3" s="2">
-        <v>4.5696159999999999</v>
+        <v>5.010774</v>
       </c>
       <c r="E3" s="2">
-        <v>2.490272</v>
+        <v>3.182422</v>
       </c>
       <c r="F3" s="2">
-        <v>5.4249219999999996</v>
+        <v>6.235662</v>
       </c>
       <c r="G3" s="2">
-        <v>3.645753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.12829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.1916910000000001</v>
+        <v>2.580119</v>
       </c>
       <c r="C4" s="2">
-        <v>2.8091279999999998</v>
+        <v>1.776443</v>
       </c>
       <c r="D4" s="2">
-        <v>4.8729829999999996</v>
+        <v>5.098019</v>
       </c>
       <c r="E4" s="2">
-        <v>3.4437389999999999</v>
+        <v>2.861665</v>
       </c>
       <c r="F4" s="2">
-        <v>7.0872320000000002</v>
+        <v>5.727601</v>
       </c>
       <c r="G4" s="2">
-        <v>3.9298760000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.822264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2.673349</v>
+        <v>2.380137</v>
       </c>
       <c r="C5" s="2">
-        <v>2.8845779999999999</v>
+        <v>1.761133</v>
       </c>
       <c r="D5" s="2">
-        <v>5.260402</v>
+        <v>4.848907</v>
       </c>
       <c r="E5" s="2">
-        <v>2.9197320000000002</v>
+        <v>2.704877</v>
       </c>
       <c r="F5" s="2">
-        <v>5.7884529999999996</v>
+        <v>5.619052</v>
       </c>
       <c r="G5" s="2">
-        <v>3.9298449999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.795454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.5776370000000002</v>
+        <v>2.941691</v>
       </c>
       <c r="C6" s="2">
-        <v>2.4633259999999999</v>
+        <v>2.347533</v>
       </c>
       <c r="D6" s="2">
-        <v>4.5923389999999999</v>
+        <v>5.542181</v>
       </c>
       <c r="E6" s="2">
-        <v>2.4363260000000002</v>
+        <v>2.855806</v>
       </c>
       <c r="F6" s="2">
-        <v>5.2781190000000002</v>
+        <v>6.182397</v>
       </c>
       <c r="G6" s="2">
-        <v>3.5745290000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.166889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2.1702590000000002</v>
+        <v>2.59218</v>
       </c>
       <c r="C7" s="2">
-        <v>2.4013170000000001</v>
+        <v>1.81819</v>
       </c>
       <c r="D7" s="2">
-        <v>4.8649279999999999</v>
+        <v>5.158869</v>
       </c>
       <c r="E7" s="2">
-        <v>2.487025</v>
+        <v>2.873176</v>
       </c>
       <c r="F7" s="2">
-        <v>5.24315</v>
+        <v>5.856366</v>
       </c>
       <c r="G7" s="2">
-        <v>3.6179199999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.958323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2.198299</v>
+        <v>2.408578</v>
       </c>
       <c r="C8" s="2">
-        <v>1.97112</v>
+        <v>1.762368</v>
       </c>
       <c r="D8" s="2">
-        <v>4.5504899999999999</v>
+        <v>4.831484</v>
       </c>
       <c r="E8" s="2">
-        <v>2.6325669999999999</v>
+        <v>2.698036</v>
       </c>
       <c r="F8" s="2">
-        <v>5.5875690000000002</v>
+        <v>5.631438</v>
       </c>
       <c r="G8" s="2">
-        <v>3.6511290000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.796845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.1972809999999998</v>
+        <v>2.385238</v>
       </c>
       <c r="C9" s="2">
-        <v>2.6447409999999998</v>
+        <v>1.78342</v>
       </c>
       <c r="D9" s="2">
-        <v>5.3205580000000001</v>
+        <v>4.912341</v>
       </c>
       <c r="E9" s="2">
-        <v>3.213225</v>
+        <v>2.691865</v>
       </c>
       <c r="F9" s="2">
-        <v>6.3478000000000003</v>
+        <v>5.618615</v>
       </c>
       <c r="G9" s="2">
-        <v>4.192272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.822049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2.2095899999999999</v>
+        <v>2.414872</v>
       </c>
       <c r="C10" s="2">
-        <v>2.6717810000000002</v>
+        <v>1.770718</v>
       </c>
       <c r="D10" s="2">
-        <v>5.7770979999999996</v>
+        <v>4.900357</v>
       </c>
       <c r="E10" s="2">
-        <v>3.3026460000000002</v>
+        <v>2.674288</v>
       </c>
       <c r="F10" s="2">
-        <v>5.9912929999999998</v>
+        <v>5.589721</v>
       </c>
       <c r="G10" s="2">
-        <v>3.5737130000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.884773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2.1599379999999999</v>
+        <v>2.42373</v>
       </c>
       <c r="C11" s="2">
-        <v>2.2046130000000002</v>
+        <v>1.737915</v>
       </c>
       <c r="D11" s="2">
-        <v>4.5343520000000002</v>
+        <v>4.975698</v>
       </c>
       <c r="E11" s="2">
-        <v>2.4462649999999999</v>
+        <v>2.687903</v>
       </c>
       <c r="F11" s="2">
-        <v>5.214359</v>
+        <v>5.608984</v>
       </c>
       <c r="G11" s="2">
-        <v>3.5513949999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4">
-        <f>SUBTOTAL(101,Table1[mixed])</f>
-        <v>2.3197985000000001</v>
-      </c>
-      <c r="C12" s="4">
-        <f>SUBTOTAL(101,Table1[mixed optimized])</f>
-        <v>2.4541237000000002</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUBTOTAL(101,Table1[poly])</f>
-        <v>4.9025498000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUBTOTAL(101,Table1[poly optimized])</f>
-        <v>2.8095431</v>
-      </c>
-      <c r="F12" s="4">
-        <f>SUBTOTAL(101,Table1[horner])</f>
-        <v>5.7819647000000005</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUBTOTAL(101,Table1[horner optimized])</f>
-        <v>3.7356600999999996</v>
+        <v>3.797048</v>
       </c>
     </row>
   </sheetData>
